--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Adm2</t>
+  </si>
+  <si>
+    <t>Calcrl</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Adm2</t>
-  </si>
-  <si>
-    <t>Calcrl</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H2">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.12061933333333</v>
+        <v>62.87391666666667</v>
       </c>
       <c r="N2">
-        <v>138.361858</v>
+        <v>188.62175</v>
       </c>
       <c r="O2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="P2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="Q2">
-        <v>1.445128112650889</v>
+        <v>4.5499338535</v>
       </c>
       <c r="R2">
-        <v>13.006153013858</v>
+        <v>40.9494046815</v>
       </c>
       <c r="S2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="T2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H3">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>105.736532</v>
       </c>
       <c r="O3">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="P3">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="Q3">
-        <v>1.104371082725778</v>
+        <v>2.550576624904</v>
       </c>
       <c r="R3">
-        <v>9.939339744532001</v>
+        <v>22.955189624136</v>
       </c>
       <c r="S3">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="T3">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H4">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.161539</v>
+        <v>7.926563000000001</v>
       </c>
       <c r="N4">
-        <v>18.484617</v>
+        <v>23.779689</v>
       </c>
       <c r="O4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="P4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
       <c r="Q4">
-        <v>0.1930636091796667</v>
+        <v>0.573613658058</v>
       </c>
       <c r="R4">
-        <v>1.737572482617</v>
+        <v>5.162522922522</v>
       </c>
       <c r="S4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="T4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H5">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.551794666666666</v>
+        <v>8.598489333333333</v>
       </c>
       <c r="N5">
-        <v>25.655384</v>
+        <v>25.795468</v>
       </c>
       <c r="O5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="P5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
       <c r="Q5">
-        <v>0.2679590834871111</v>
+        <v>0.6222382790959999</v>
       </c>
       <c r="R5">
-        <v>2.411631751384</v>
+        <v>5.600144511864</v>
       </c>
       <c r="S5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="T5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
     </row>
   </sheetData>
